--- a/TriPrA.xlsx
+++ b/TriPrA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\UDESC\ThermoPhase - 2024\Testes de Consistência\consistency_tests_2024-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F925AEB-3C4D-4B3E-9095-82AA5E6589CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C626F6-E644-4D3B-BDEE-921B1FAC5EB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="10245" windowHeight="8715" xr2:uid="{76619E1A-5961-483B-9271-680956990637}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="10245" windowHeight="8715" xr2:uid="{76619E1A-5961-483B-9271-680956990637}"/>
   </bookViews>
   <sheets>
     <sheet name="triprahso4_1_gupta" sheetId="1" r:id="rId1"/>
@@ -169,9 +169,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -191,6 +188,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,10 +509,13 @@
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -577,283 +580,228 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4">
-        <f>D2-273.15</f>
+      <c r="C2" s="3">
         <v>9.6359000000000492</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>282.78590000000003</v>
       </c>
-      <c r="E2" s="6">
-        <f>F2*10</f>
+      <c r="E2" s="5">
         <v>75.199999999999989</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>7.52</v>
       </c>
-      <c r="G2" s="8">
-        <f>F2*10^6</f>
+      <c r="G2" s="7">
         <v>7520000</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>283.48208339791256</v>
       </c>
-      <c r="I2" s="9">
-        <f t="shared" ref="I2:I6" si="0">F2-10^(-4646.471 +5314653/H2 -2271392000/H2^2 +430306500000/H2^3 -30511740000000/H2^4)</f>
+      <c r="I2" s="8">
         <v>-5.8454574514144042E-11</v>
       </c>
-      <c r="J2" s="9">
-        <f t="shared" ref="J2:J6" si="1">H2-D2</f>
+      <c r="J2" s="8">
         <v>0.69618339791253447</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K6" si="2">(H2-D2)/(H2*D2)</f>
         <v>8.6844095283015921E-6</v>
       </c>
       <c r="L2">
-        <f>_xlfn.STDEV.S(K2:K6)</f>
         <v>4.5376192861415462E-6</v>
       </c>
       <c r="M2">
-        <f>AVERAGE(K2:K6)</f>
         <v>4.5525683047816518E-6</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2" si="3">100*L2/M2</f>
         <v>99.671635489259884</v>
       </c>
-      <c r="O2" s="10">
-        <f t="shared" ref="O2:O6" si="4">LN(F2)</f>
+      <c r="O2" s="9">
         <v>2.0175661379617482</v>
       </c>
-      <c r="P2" s="10">
-        <f t="shared" ref="P2:P6" si="5">1/D2</f>
+      <c r="P2" s="9">
         <v>3.5362442045377791E-3</v>
       </c>
-      <c r="Q2" s="10">
-        <f t="shared" ref="Q2:Q6" si="6">1/H2</f>
+      <c r="Q2" s="9">
         <v>3.5275597950094775E-3</v>
       </c>
       <c r="R2">
-        <f>SLOPE(O2:O6,P2:P6)</f>
         <v>-8658.179220501208</v>
       </c>
       <c r="S2">
-        <f>SLOPE(O2:O6,Q2:Q6)</f>
         <v>-8091.7787404456185</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2" si="7">100*ABS(S2-R2)/ABS(S2)</f>
         <v>6.9997030099762396</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4">
-        <f t="shared" ref="C3:C6" si="8">D3-273.15</f>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="3">
         <v>9.0361000000000331</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>282.18610000000001</v>
       </c>
-      <c r="E3" s="6">
-        <f t="shared" ref="E3:E6" si="9">F3*10</f>
+      <c r="E3" s="5">
         <v>69.2</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>6.92</v>
       </c>
-      <c r="G3" s="8">
-        <f t="shared" ref="G3:G6" si="10">F3*10^6</f>
+      <c r="G3" s="7">
         <v>6920000</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>282.7229745200313</v>
       </c>
-      <c r="I3" s="9">
-        <f t="shared" si="0"/>
+      <c r="I3" s="8">
         <v>-3.3510083596866025E-11</v>
       </c>
-      <c r="J3" s="9">
-        <f t="shared" si="1"/>
+      <c r="J3" s="8">
         <v>0.5368745200312901</v>
       </c>
       <c r="K3">
-        <f t="shared" si="2"/>
         <v>6.7293958218763508E-6</v>
       </c>
-      <c r="O3" s="10">
-        <f t="shared" si="4"/>
+      <c r="O3" s="9">
         <v>1.9344157696295783</v>
       </c>
-      <c r="P3" s="10">
-        <f t="shared" si="5"/>
+      <c r="P3" s="9">
         <v>3.5437606600750354E-3</v>
       </c>
-      <c r="Q3" s="10">
-        <f t="shared" si="6"/>
+      <c r="Q3" s="9">
         <v>3.5370312642531592E-3</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4">
-        <f t="shared" si="8"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="3">
         <v>7.7367000000000417</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>280.88670000000002</v>
       </c>
-      <c r="E4" s="6">
-        <f t="shared" si="9"/>
+      <c r="E4" s="5">
         <v>59.900000000000006</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>5.99</v>
       </c>
-      <c r="G4" s="8">
-        <f t="shared" si="10"/>
+      <c r="G4" s="7">
         <v>5990000</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>281.37507544458276</v>
       </c>
-      <c r="I4" s="9">
-        <f t="shared" si="0"/>
+      <c r="I4" s="8">
         <v>-1.0041656395287646E-10</v>
       </c>
-      <c r="J4" s="9">
-        <f t="shared" si="1"/>
+      <c r="J4" s="8">
         <v>0.48837544458274351</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
         <v>6.1792678288440641E-6</v>
       </c>
-      <c r="O4" s="10">
-        <f t="shared" si="4"/>
+      <c r="O4" s="9">
         <v>1.7900914121273581</v>
       </c>
-      <c r="P4" s="10">
-        <f t="shared" si="5"/>
+      <c r="P4" s="9">
         <v>3.5601543255697047E-3</v>
       </c>
-      <c r="Q4" s="10">
-        <f t="shared" si="6"/>
+      <c r="Q4" s="9">
         <v>3.5539750577408603E-3</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4">
-        <f t="shared" si="8"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="3">
         <v>6.4372000000000185</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>279.5872</v>
       </c>
-      <c r="E5" s="6">
-        <f t="shared" si="9"/>
+      <c r="E5" s="5">
         <v>48.6</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>4.8600000000000003</v>
       </c>
-      <c r="G5" s="8">
-        <f t="shared" si="10"/>
+      <c r="G5" s="7">
         <v>4860000</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>279.34902356726832</v>
       </c>
-      <c r="I5" s="9">
-        <f t="shared" si="0"/>
+      <c r="I5" s="8">
         <v>-1.7684875786017074E-10</v>
       </c>
-      <c r="J5" s="9">
-        <f t="shared" si="1"/>
+      <c r="J5" s="8">
         <v>-0.23817643273167732</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
         <v>-3.0495400679757552E-6</v>
       </c>
-      <c r="O5" s="10">
-        <f t="shared" si="4"/>
+      <c r="O5" s="9">
         <v>1.5810384379124025</v>
       </c>
-      <c r="P5" s="10">
-        <f t="shared" si="5"/>
+      <c r="P5" s="9">
         <v>3.5767016515777547E-3</v>
       </c>
-      <c r="Q5" s="10">
-        <f t="shared" si="6"/>
+      <c r="Q5" s="9">
         <v>3.5797511916457305E-3</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4">
-        <f t="shared" si="8"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="3">
         <v>3.5384000000000242</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>276.6884</v>
       </c>
-      <c r="E6" s="6">
-        <f t="shared" si="9"/>
+      <c r="E6" s="5">
         <v>38.6</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>3.86</v>
       </c>
-      <c r="G6" s="8">
-        <f t="shared" si="10"/>
+      <c r="G6" s="7">
         <v>3860000</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>277.01179290062913</v>
       </c>
-      <c r="I6" s="9">
-        <f t="shared" si="0"/>
+      <c r="I6" s="8">
         <v>-2.071196547603904E-10</v>
       </c>
-      <c r="J6" s="9">
-        <f t="shared" si="1"/>
+      <c r="J6" s="8">
         <v>0.32339290062913051</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
         <v>4.2193084128620043E-6</v>
       </c>
-      <c r="O6" s="10">
-        <f t="shared" si="4"/>
+      <c r="O6" s="9">
         <v>1.3506671834767394</v>
       </c>
-      <c r="P6" s="10">
-        <f t="shared" si="5"/>
+      <c r="P6" s="9">
         <v>3.6141739227231787E-3</v>
       </c>
-      <c r="Q6" s="10">
-        <f t="shared" si="6"/>
+      <c r="Q6" s="9">
         <v>3.6099546143103169E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>